--- a/DoAn/QLTS/wwwroot/Content/files/Import_TechnicalStaff.xlsx
+++ b/DoAn/QLTS/wwwroot/Content/files/Import_TechnicalStaff.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC07CD-2638-4E06-B55D-B7994396B344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,25 +40,25 @@
     <t>TS-125154</t>
   </si>
   <si>
-    <t>Bita 1</t>
-  </si>
-  <si>
-    <t>bitahandsome@gmail.com</t>
-  </si>
-  <si>
     <t>TS-122123</t>
   </si>
   <si>
-    <t>Bita 2</t>
-  </si>
-  <si>
-    <t>example@example.com</t>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Linh</t>
+  </si>
+  <si>
+    <t>annv@gmail.com</t>
+  </si>
+  <si>
+    <t>linhnt@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -405,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>31541544</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -459,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>145145472</v>
@@ -473,8 +474,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
